--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>0.1101614122043189</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.995127116690922</v>
+        <v>-1.880496794940862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05716020302004384</v>
+        <v>0.1890531096841044</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04059475743956659</v>
+        <v>0.01930730597970587</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1391789271517898</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.136932454193492</v>
+        <v>-1.990644199716823</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07560062076702918</v>
+        <v>0.08023594190412987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01629734743995421</v>
+        <v>-0.0375928038747972</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1727410267385487</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.321673157735741</v>
+        <v>-2.220132953550048</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1085723226313524</v>
+        <v>0.06895850859105827</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02529192366614237</v>
+        <v>-0.04370969834190348</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2000673970953899</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.348921973890137</v>
+        <v>-2.270949714574666</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06371570645991652</v>
+        <v>0.1031823776047453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005154096675767187</v>
+        <v>-0.04197996330264598</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2165448748400957</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.298399804552389</v>
+        <v>-2.234955245836379</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1066266756725261</v>
+        <v>0.07528521577096588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001925786533739717</v>
+        <v>-0.04269113081173422</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2196467499756822</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.913654522611593</v>
+        <v>-1.942459246412373</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004592359732482226</v>
+        <v>0.1812070900984174</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02089500550746562</v>
+        <v>-0.05251512315211519</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2147657077291177</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.729976910808915</v>
+        <v>-1.766369047828442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0229564613886895</v>
+        <v>0.1610705589555802</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00244299926762207</v>
+        <v>-0.01341615816918093</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2116262767024233</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.336603690974841</v>
+        <v>-1.32462850840757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07530656299465206</v>
+        <v>0.179920157470479</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06630786933609577</v>
+        <v>-0.03644371331980386</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2208743963347475</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.838029523053232</v>
+        <v>-0.8023253765570775</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1432376982088205</v>
+        <v>0.1787204434993155</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03213027828765704</v>
+        <v>0.04189266863968646</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2541340772686798</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5484147889061842</v>
+        <v>-0.4460133767249225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05143853715147031</v>
+        <v>0.07954063233263708</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07385739146669867</v>
+        <v>0.05376233492988041</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3196237663546182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1453211872405919</v>
+        <v>0.1411249329845652</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06992225926650476</v>
+        <v>-0.07756151574277419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1938373274725161</v>
+        <v>0.1716569521418963</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4201955103522202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5534282608628687</v>
+        <v>0.582741658508057</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06143826265293927</v>
+        <v>-0.163268179160088</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2419740970435031</v>
+        <v>0.2355510223966693</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5557302366689466</v>
       </c>
       <c r="E14" t="n">
-        <v>1.002170689652808</v>
+        <v>1.005603933142223</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3982462190840448</v>
+        <v>-0.4642060906709636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4355190055546109</v>
+        <v>0.3649633816683955</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7193178966172581</v>
       </c>
       <c r="E15" t="n">
-        <v>1.571684731486984</v>
+        <v>1.496716331504496</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8253023082915303</v>
+        <v>-0.8171598672569437</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4376610469713501</v>
+        <v>0.4232760678102471</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9013155320662941</v>
       </c>
       <c r="E16" t="n">
-        <v>2.301858588704043</v>
+        <v>2.087547100991017</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.009531288385988</v>
+        <v>-1.029661110401381</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5368786732199868</v>
+        <v>0.5381119328283714</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.094080745304182</v>
       </c>
       <c r="E17" t="n">
-        <v>2.718710095068856</v>
+        <v>2.504697468487437</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.316883125733546</v>
+        <v>-1.359866675506689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.552149257203728</v>
+        <v>0.5862090575553698</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.288487513289565</v>
       </c>
       <c r="E18" t="n">
-        <v>3.258626516222479</v>
+        <v>2.941839815926305</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.586112481101644</v>
+        <v>-1.58056708230865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6354180676760799</v>
+        <v>0.6982667338909068</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.478082084640918</v>
       </c>
       <c r="E19" t="n">
-        <v>3.466943703524425</v>
+        <v>3.167395801235858</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.889623647947719</v>
+        <v>-1.853593193889504</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7999752761833826</v>
+        <v>0.8412315305999748</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.660093823019103</v>
       </c>
       <c r="E20" t="n">
-        <v>3.768189624977058</v>
+        <v>3.456650682183624</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.09450576199822</v>
+        <v>-2.036712728272958</v>
       </c>
       <c r="G20" t="n">
-        <v>1.02341849626868</v>
+        <v>1.047595751894973</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.828741691061241</v>
       </c>
       <c r="E21" t="n">
-        <v>4.146342884243561</v>
+        <v>3.731663915329324</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.414326817661216</v>
+        <v>-2.286017804893727</v>
       </c>
       <c r="G21" t="n">
-        <v>1.176853191314805</v>
+        <v>1.151946470559122</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.979725613280755</v>
       </c>
       <c r="E22" t="n">
-        <v>4.409033280036242</v>
+        <v>3.952917520185096</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.69017747189609</v>
+        <v>-2.50765931929991</v>
       </c>
       <c r="G22" t="n">
-        <v>1.145267229228054</v>
+        <v>1.170198956731484</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.109344811581529</v>
       </c>
       <c r="E23" t="n">
-        <v>4.688736803186134</v>
+        <v>4.196070936860184</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.881483361602855</v>
+        <v>-2.660674388920433</v>
       </c>
       <c r="G23" t="n">
-        <v>1.416500783939945</v>
+        <v>1.364317190678735</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.214549914107162</v>
       </c>
       <c r="E24" t="n">
-        <v>4.806861360493285</v>
+        <v>4.332932257357034</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.019123855764251</v>
+        <v>-2.813428412491307</v>
       </c>
       <c r="G24" t="n">
-        <v>1.541941949685365</v>
+        <v>1.444300358465445</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.297051762158356</v>
       </c>
       <c r="E25" t="n">
-        <v>5.053047302773163</v>
+        <v>4.546516719623376</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.196911768551912</v>
+        <v>-2.93085278086155</v>
       </c>
       <c r="G25" t="n">
-        <v>1.575977353209937</v>
+        <v>1.522463522952739</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.357004026174957</v>
       </c>
       <c r="E26" t="n">
-        <v>5.076073028161756</v>
+        <v>4.657197804991492</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.339980556736365</v>
+        <v>-3.071006758131825</v>
       </c>
       <c r="G26" t="n">
-        <v>1.634718203666865</v>
+        <v>1.522502557876051</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.392507108708372</v>
       </c>
       <c r="E27" t="n">
-        <v>5.243248626134339</v>
+        <v>4.776688584614558</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.292949268391984</v>
+        <v>-3.028166539717718</v>
       </c>
       <c r="G27" t="n">
-        <v>1.604660092875368</v>
+        <v>1.530274167139175</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.403632287416246</v>
       </c>
       <c r="E28" t="n">
-        <v>5.235292820826837</v>
+        <v>4.81030375279285</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.266821181481112</v>
+        <v>-2.993980790746328</v>
       </c>
       <c r="G28" t="n">
-        <v>1.667011673738645</v>
+        <v>1.55087606775837</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.388382457757873</v>
       </c>
       <c r="E29" t="n">
-        <v>5.230146310156436</v>
+        <v>4.834799387012406</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.426290126742644</v>
+        <v>-3.127847400720345</v>
       </c>
       <c r="G29" t="n">
-        <v>1.667000695166463</v>
+        <v>1.559015459189573</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.346031396169724</v>
       </c>
       <c r="E30" t="n">
-        <v>5.226307469416984</v>
+        <v>4.83670599904792</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.339001634050184</v>
+        <v>-3.061087008245194</v>
       </c>
       <c r="G30" t="n">
-        <v>1.65560920668684</v>
+        <v>1.535049236117435</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.279478844150765</v>
       </c>
       <c r="E31" t="n">
-        <v>5.190703959832493</v>
+        <v>4.807700611344489</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.290526968424279</v>
+        <v>-3.009877458304751</v>
       </c>
       <c r="G31" t="n">
-        <v>1.514144204921895</v>
+        <v>1.409955725157762</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.189581525262848</v>
       </c>
       <c r="E32" t="n">
-        <v>4.943555562724706</v>
+        <v>4.680097886720675</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.272364750512075</v>
+        <v>-2.978624817867842</v>
       </c>
       <c r="G32" t="n">
-        <v>1.479869102571362</v>
+        <v>1.387602132354946</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.079881613924651</v>
       </c>
       <c r="E33" t="n">
-        <v>4.76324593289903</v>
+        <v>4.547962231627269</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.332013772856682</v>
+        <v>-3.038734635283732</v>
       </c>
       <c r="G33" t="n">
-        <v>1.327992144933651</v>
+        <v>1.287261642140415</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.955968228300007</v>
       </c>
       <c r="E34" t="n">
-        <v>4.551435119960672</v>
+        <v>4.398980567442081</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.030299127363968</v>
+        <v>-2.817084277027735</v>
       </c>
       <c r="G34" t="n">
-        <v>1.200446142932774</v>
+        <v>1.183314690964274</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.820781709585968</v>
       </c>
       <c r="E35" t="n">
-        <v>4.326398787067709</v>
+        <v>4.186031642520911</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.00246356751854</v>
+        <v>-2.761712628389163</v>
       </c>
       <c r="G35" t="n">
-        <v>1.187909223422217</v>
+        <v>1.138166532709353</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.68039271207464</v>
       </c>
       <c r="E36" t="n">
-        <v>4.12880278542164</v>
+        <v>4.014640272830646</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.932244619845889</v>
+        <v>-2.720012961640574</v>
       </c>
       <c r="G36" t="n">
-        <v>1.182446773841262</v>
+        <v>1.111669748749387</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.539669446361703</v>
       </c>
       <c r="E37" t="n">
-        <v>3.769874225886236</v>
+        <v>3.689916064847273</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.979654668930531</v>
+        <v>-2.731568518782243</v>
       </c>
       <c r="G37" t="n">
-        <v>1.133378655396881</v>
+        <v>1.076649323331867</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.400412727656455</v>
       </c>
       <c r="E38" t="n">
-        <v>3.536664955924849</v>
+        <v>3.493439877563714</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.888256530718142</v>
+        <v>-2.683120689666115</v>
       </c>
       <c r="G38" t="n">
-        <v>1.068548966823976</v>
+        <v>1.038473778253529</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.26755681237898</v>
       </c>
       <c r="E39" t="n">
-        <v>3.320069925198078</v>
+        <v>3.244920378774597</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.846057948855975</v>
+        <v>-2.698014952592303</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9343847155597057</v>
+        <v>0.9380509487476383</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.143997528250028</v>
       </c>
       <c r="E40" t="n">
-        <v>3.046697378672831</v>
+        <v>3.021652815844202</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.897613323820134</v>
+        <v>-2.753964196111755</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8555390498351307</v>
+        <v>0.8338081860432741</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.030205459466576</v>
       </c>
       <c r="E41" t="n">
-        <v>2.694313267998934</v>
+        <v>2.735624415276433</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.721224264104596</v>
+        <v>-2.649543336569781</v>
       </c>
       <c r="G41" t="n">
-        <v>0.851309249941883</v>
+        <v>0.8173555757879953</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9286542912977489</v>
       </c>
       <c r="E42" t="n">
-        <v>2.335840929129737</v>
+        <v>2.419483011056259</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.806614988611355</v>
+        <v>-2.651288319625957</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8235047960509693</v>
+        <v>0.798538912989641</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8374033682385705</v>
       </c>
       <c r="E43" t="n">
-        <v>2.206603617092238</v>
+        <v>2.236833725514578</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.564192866827688</v>
+        <v>-2.510068505973065</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7430367413262444</v>
+        <v>0.7151877632259281</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7537489105617069</v>
       </c>
       <c r="E44" t="n">
-        <v>1.811639114212528</v>
+        <v>1.899551250796963</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.52124957181921</v>
+        <v>-2.429243037731766</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8405984329375102</v>
+        <v>0.760276759175205</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6773560211601289</v>
       </c>
       <c r="E45" t="n">
-        <v>1.723321990298733</v>
+        <v>1.770094367315834</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.572881186867964</v>
+        <v>-2.454604759312303</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7673219529123219</v>
+        <v>0.6559492174967729</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6061346862864549</v>
       </c>
       <c r="E46" t="n">
-        <v>1.505970048012118</v>
+        <v>1.557455892019128</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.486323074185909</v>
+        <v>-2.381981504331912</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6761711375343549</v>
+        <v>0.6002927359021591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5392857746361444</v>
       </c>
       <c r="E47" t="n">
-        <v>1.307538455038905</v>
+        <v>1.394361273294668</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.403844720910623</v>
+        <v>-2.286040371958766</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5648630537105412</v>
+        <v>0.5061209834122591</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4770370309936086</v>
       </c>
       <c r="E48" t="n">
-        <v>1.232566395532357</v>
+        <v>1.262947154361854</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.391349276006086</v>
+        <v>-2.285563413989549</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5449686610763731</v>
+        <v>0.4463554662183936</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4180009508636987</v>
       </c>
       <c r="E49" t="n">
-        <v>1.095005496019277</v>
+        <v>1.151081603039493</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.353471982138678</v>
+        <v>-2.23351278343587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4785696466021958</v>
+        <v>0.3924232303769466</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3619646954298082</v>
       </c>
       <c r="E50" t="n">
-        <v>1.00320572504125</v>
+        <v>1.023532551435232</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.333738608563171</v>
+        <v>-2.198804027484168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3917523176325237</v>
+        <v>0.3364666678093727</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3084305968358186</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7243402329012094</v>
+        <v>0.813197136613927</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.208998241675335</v>
+        <v>-2.107137219213672</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3143058099404088</v>
+        <v>0.2550477467495977</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2566859666833421</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6391550516625152</v>
+        <v>0.7117002367962827</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.179508576954567</v>
+        <v>-2.058186815459903</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2282850373745697</v>
+        <v>0.1876069877595347</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2070087617835031</v>
       </c>
       <c r="E53" t="n">
-        <v>0.417400701931133</v>
+        <v>0.5520260532270249</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.173692983301774</v>
+        <v>-2.030153641315209</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2236093854666191</v>
+        <v>0.1774786450014565</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1593100705703128</v>
       </c>
       <c r="E54" t="n">
-        <v>0.240032719529414</v>
+        <v>0.4182686190541455</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.151655329409513</v>
+        <v>-1.998045587129161</v>
       </c>
       <c r="G54" t="n">
-        <v>0.13454083927907</v>
+        <v>0.1202967517942958</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1132258502881398</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2187178216390997</v>
+        <v>0.3832176976027881</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.101341752943212</v>
+        <v>-1.962386574763086</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09666476525301555</v>
+        <v>0.07516384155629302</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0691796734861313</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1103227189674348</v>
+        <v>0.3076009519409174</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.11966255023137</v>
+        <v>-1.989213325809172</v>
       </c>
       <c r="G56" t="n">
-        <v>0.002690017141705033</v>
+        <v>0.01301414443701941</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.0264479695757416</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06107414000892068</v>
+        <v>0.1361827457408757</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.107391556135876</v>
+        <v>-1.953991016647649</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06108321281288735</v>
+        <v>0.0385350553141884</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01562751357712826</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2213246986177054</v>
+        <v>-0.001723368875243914</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.001364775452024</v>
+        <v>-1.920472825856959</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03592284106186102</v>
+        <v>-0.02224232028240208</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.05758072306984856</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3314330684703556</v>
+        <v>-0.06749538489372424</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.10222186847976</v>
+        <v>-1.990918054100683</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.04153655097065014</v>
+        <v>-0.02520592485072089</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.0996978781158661</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.605695489262978</v>
+        <v>-0.2393820101735084</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.150184810657874</v>
+        <v>-2.066190194580191</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07651123233741403</v>
+        <v>-0.04020326437127889</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.141745641247514</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7240493767445852</v>
+        <v>-0.315209788389534</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.114879552284312</v>
+        <v>-2.065693109228642</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0698478489439415</v>
+        <v>-0.06050752370022174</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1833976612025049</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.7279394508208843</v>
+        <v>-0.3310110033620459</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.094408784610617</v>
+        <v>-2.02373910555785</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1549988746247379</v>
+        <v>-0.1121153518425819</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2239840028370207</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8877844121796316</v>
+        <v>-0.5107296200519519</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.188268257714022</v>
+        <v>-2.092469846779235</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1422978864521363</v>
+        <v>-0.1176339141257983</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2634727604481588</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.046901738171018</v>
+        <v>-0.5828649384909448</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.201304702258835</v>
+        <v>-2.108292408975433</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.173392252473429</v>
+        <v>-0.1300012756882187</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3021710750457549</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.133566586971503</v>
+        <v>-0.6954166505746476</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.238371411546845</v>
+        <v>-2.124970689881109</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.184709940551166</v>
+        <v>-0.1270205933409509</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3397318772833418</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.260169651606128</v>
+        <v>-0.8163925870455947</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.297095794145501</v>
+        <v>-2.163514627048202</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2698908523451231</v>
+        <v>-0.1745742787449668</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3763381087296957</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.368957543193619</v>
+        <v>-0.9078013988698261</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.221843171127649</v>
+        <v>-2.087132430937013</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2775026623909388</v>
+        <v>-0.189176389666992</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4119629680963625</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.483817195118136</v>
+        <v>-1.00836999941746</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.24760012130672</v>
+        <v>-2.131332162539591</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3170968829633925</v>
+        <v>-0.2149626160385464</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4457768900510919</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.512179116507598</v>
+        <v>-1.114492537647561</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.317580589994762</v>
+        <v>-2.148300765687399</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3134068628690667</v>
+        <v>-0.224453591689423</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4774922641367004</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.604756536348478</v>
+        <v>-1.185251265119134</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.214092909088212</v>
+        <v>-2.133216817430743</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2899267465762967</v>
+        <v>-0.220991681928201</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5062824472471824</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.684184066398671</v>
+        <v>-1.236032040823824</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.297233636218447</v>
+        <v>-2.141512958475869</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3704801901957662</v>
+        <v>-0.2620314145045476</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5307528062939857</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.685467339502549</v>
+        <v>-1.294252628943486</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.358316582074088</v>
+        <v>-2.20673360620257</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4585838418727</v>
+        <v>-0.3088629538272937</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5499305788336245</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.655986823591932</v>
+        <v>-1.307486077866889</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.285180993725228</v>
+        <v>-2.178927932470303</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5102996259748446</v>
+        <v>-0.3344741329646214</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5625201994556558</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.624005632906647</v>
+        <v>-1.306837122266829</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.363718649508045</v>
+        <v>-2.227132403236408</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4700412017854123</v>
+        <v>-0.3088513653344355</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5678656015279724</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.608905216791719</v>
+        <v>-1.281652277682548</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.309408872767691</v>
+        <v>-2.179484790048174</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5049146363198359</v>
+        <v>-0.3560262899981907</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5655868111675236</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.449322521323973</v>
+        <v>-1.182152258160577</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.33095371075314</v>
+        <v>-2.159362287080901</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4576134580759938</v>
+        <v>-0.3045227582915545</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5554888786987218</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.328452101130103</v>
+        <v>-1.072202467683881</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.188129805720401</v>
+        <v>-2.08169193850042</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4644134637010579</v>
+        <v>-0.32464648110018</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5372937895819865</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.195075257459515</v>
+        <v>-0.9926864991355603</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.19469255220221</v>
+        <v>-2.04415254068793</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4138425007091694</v>
+        <v>-0.2890600492946377</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5108351854153034</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9773488238773769</v>
+        <v>-0.7832970712838916</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.115172314209151</v>
+        <v>-1.960843475450913</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4305836034445501</v>
+        <v>-0.2790225847173949</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4753216227738198</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8788545635513633</v>
+        <v>-0.6972220157778218</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.139805790501652</v>
+        <v>-1.962659209305592</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4005468398767385</v>
+        <v>-0.2703385341218561</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4303404253342736</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5970309561290952</v>
+        <v>-0.4300956669031517</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.025199865578661</v>
+        <v>-1.874820263202367</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3447714237501588</v>
+        <v>-0.2221267443076291</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3756100620528129</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3922653369278534</v>
+        <v>-0.2461435907959374</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.147322452921895</v>
+        <v>-1.936338692421207</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2959856985791119</v>
+        <v>-0.1775689892677997</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3117447077129376</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1653559376365966</v>
+        <v>-0.01861329225575114</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.100332334223194</v>
+        <v>-1.873372921436444</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2887892445141616</v>
+        <v>-0.1557655449154102</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2411802948037819</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03760065683741037</v>
+        <v>0.1753988154937456</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.942789823419171</v>
+        <v>-1.739672819807179</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2816647610890676</v>
+        <v>-0.1649228939561055</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1663673874504213</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3157397334514435</v>
+        <v>0.4175165868597152</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.836062243877735</v>
+        <v>-1.628740447120242</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2360048793863544</v>
+        <v>-0.1148154706785456</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.08995563620471769</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5150313145788714</v>
+        <v>0.5682072487811508</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.648093840114135</v>
+        <v>-1.492425005629082</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2417039781898883</v>
+        <v>-0.1208048917242115</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.01566117303020762</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7507375997908654</v>
+        <v>0.7656794365298394</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.624268508718326</v>
+        <v>-1.404178022593112</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1527049629594884</v>
+        <v>-0.06839013852651364</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0530684874034474</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9145494852311821</v>
+        <v>0.9230889846263316</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.544501252851184</v>
+        <v>-1.296721587842963</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06115099001419094</v>
+        <v>0.002325284577009695</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1117867691480354</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9268180396439692</v>
+        <v>0.9715935363653977</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.271984425035415</v>
+        <v>-1.082683954513797</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08427735231444705</v>
+        <v>-0.008999722548848245</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1546630891014109</v>
       </c>
       <c r="E90" t="n">
-        <v>1.008253428562016</v>
+        <v>1.016036016397322</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.280197006947827</v>
+        <v>-1.019226587463575</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02441973709839265</v>
+        <v>0.03536590747780549</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1771209464954636</v>
       </c>
       <c r="E91" t="n">
-        <v>1.081301798254101</v>
+        <v>1.030228870545249</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9751238332486</v>
+        <v>-0.7593875708346909</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0504377333271113</v>
+        <v>0.0270709862740319</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1754234308156865</v>
       </c>
       <c r="E92" t="n">
-        <v>1.082125801088388</v>
+        <v>0.9899320213531816</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.773263876151386</v>
+        <v>-0.524351588446443</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07815862808531053</v>
+        <v>-0.005535983025596024</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1479358210222031</v>
       </c>
       <c r="E93" t="n">
-        <v>1.191169859360113</v>
+        <v>1.03670500829096</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5382193548736637</v>
+        <v>-0.3319777276346916</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02878188977849476</v>
+        <v>0.01177112609780687</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09788315933244751</v>
       </c>
       <c r="E94" t="n">
-        <v>1.291129759072352</v>
+        <v>1.098191111713932</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3254656045690526</v>
+        <v>-0.1305300769149593</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1111364291564013</v>
+        <v>-0.05499445070309604</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03226620558572021</v>
       </c>
       <c r="E95" t="n">
-        <v>1.294716702572307</v>
+        <v>1.085366919564627</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2222279911399693</v>
+        <v>0.02151582875021059</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05440892685341791</v>
+        <v>-0.0302127636861457</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0376838023355689</v>
       </c>
       <c r="E96" t="n">
-        <v>1.306302755747813</v>
+        <v>1.078953603648621</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.07266446262916403</v>
+        <v>0.09689958471356355</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1113505113139398</v>
+        <v>-0.09213252071028528</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09942296749678679</v>
       </c>
       <c r="E97" t="n">
-        <v>1.242524570421622</v>
+        <v>1.058157138333543</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07105114643298087</v>
+        <v>0.185957762249608</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08462012773477946</v>
+        <v>-0.1014380804754304</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1437155122917803</v>
       </c>
       <c r="E98" t="n">
-        <v>1.194994671924</v>
+        <v>1.040097997015709</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1515033432201102</v>
+        <v>0.2100325512022073</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1099190274856122</v>
+        <v>-0.1060106557890106</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1661342438901045</v>
       </c>
       <c r="E99" t="n">
-        <v>1.105485763007838</v>
+        <v>0.9798829682830805</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2391983480436227</v>
+        <v>0.2253458296333208</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1185115899796388</v>
+        <v>-0.1148374278229085</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1714957374236213</v>
       </c>
       <c r="E100" t="n">
-        <v>0.988001622411274</v>
+        <v>0.8790752788301616</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2767816601448381</v>
+        <v>0.2619215527765484</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1012349768900733</v>
+        <v>-0.08385955665087463</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1696703827502791</v>
       </c>
       <c r="E101" t="n">
-        <v>1.011853180396183</v>
+        <v>0.9059306961480552</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3093892393651427</v>
+        <v>0.2586438390597043</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2202658763228708</v>
+        <v>-0.148365377344426</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1747396980424668</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9887646331778858</v>
+        <v>0.9031573868308819</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3266902492817781</v>
+        <v>0.2164312290219712</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1652296840565098</v>
+        <v>-0.1193709682131768</v>
       </c>
     </row>
   </sheetData>
